--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="sd_usuario" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="sd_sede_cliente" sheetId="11" r:id="rId11"/>
     <sheet name="sd_estado_orden" sheetId="12" r:id="rId12"/>
     <sheet name="sd_orden_recojo" sheetId="13" r:id="rId13"/>
+    <sheet name="sd_planta" sheetId="14" r:id="rId14"/>
+    <sheet name="Hoja2" sheetId="15" r:id="rId15"/>
+    <sheet name="Hoja3" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="185">
   <si>
     <t>nombres</t>
   </si>
@@ -535,6 +538,57 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>id_planta</t>
+  </si>
+  <si>
+    <t>capacidad_maxima</t>
+  </si>
+  <si>
+    <t>ubicacion_x1</t>
+  </si>
+  <si>
+    <t>ubicacion_x2</t>
+  </si>
+  <si>
+    <t>ubicacion_y1</t>
+  </si>
+  <si>
+    <t>ubicacion_y2</t>
+  </si>
+  <si>
+    <t>limite_inf_pesaje_antes</t>
+  </si>
+  <si>
+    <t>limite_sup_pesaje_antes</t>
+  </si>
+  <si>
+    <t>limite_inf_pesaje_despues</t>
+  </si>
+  <si>
+    <t>limite_sup_pesaje_despues</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>11.10</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1224,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,7 +1316,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1860,6 +1914,173 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="2">
+        <v>58945785216</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" t="str">
+        <f>"INSERT INTO sd_cliente ("&amp;$B$1&amp;", "&amp;$C$1&amp;","&amp;$D$1&amp;", "&amp;$E$1&amp;","&amp;$F$1&amp;", "&amp;$G$1&amp;","&amp;$H$1&amp;", "&amp;$I$1&amp;","&amp;$J$1&amp;", "&amp;$K$1&amp;",activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"','"&amp;C2&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_cliente (nombre, direccion,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues,activo, fecha_registro, usuario_registro) VALUES ('Ferreteria San Marcos','58945785216',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2598,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="sd_usuario" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="sd_estado_orden" sheetId="12" r:id="rId12"/>
     <sheet name="sd_orden_recojo" sheetId="13" r:id="rId13"/>
     <sheet name="sd_planta" sheetId="14" r:id="rId14"/>
-    <sheet name="Hoja2" sheetId="15" r:id="rId15"/>
+    <sheet name="sd_estado_despacho" sheetId="15" r:id="rId15"/>
     <sheet name="Hoja3" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="199">
   <si>
     <t>nombres</t>
   </si>
@@ -589,6 +589,48 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>id_estado_despacho</t>
+  </si>
+  <si>
+    <t>En revision</t>
+  </si>
+  <si>
+    <t>Revision con incidencia</t>
+  </si>
+  <si>
+    <t>En peso vacio</t>
+  </si>
+  <si>
+    <t>Peso vacio con incidencia</t>
+  </si>
+  <si>
+    <t>En cola de carga</t>
+  </si>
+  <si>
+    <t>En cola de revision</t>
+  </si>
+  <si>
+    <t>Cargando productos</t>
+  </si>
+  <si>
+    <t>En peso lleno</t>
+  </si>
+  <si>
+    <t>En salida</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>Revision de carga</t>
+  </si>
+  <si>
+    <t>Av. Las Malvinas 4589</t>
+  </si>
+  <si>
+    <t>Planta Lima Sur</t>
   </si>
 </sst>
 </file>
@@ -612,12 +654,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -632,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -650,6 +698,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1550,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1920,18 +1969,21 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>168</v>
       </c>
@@ -1942,79 +1994,85 @@
         <v>143</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="2">
-        <v>58945785216</v>
+        <v>198</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>183</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M2" t="str">
-        <f>"INSERT INTO sd_cliente ("&amp;$B$1&amp;", "&amp;$C$1&amp;","&amp;$D$1&amp;", "&amp;$E$1&amp;","&amp;$F$1&amp;", "&amp;$G$1&amp;","&amp;$H$1&amp;", "&amp;$I$1&amp;","&amp;$J$1&amp;", "&amp;$K$1&amp;",activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"','"&amp;C2&amp;"',1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_cliente (nombre, direccion,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues,activo, fecha_registro, usuario_registro) VALUES ('Ferreteria San Marcos','58945785216',1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="str">
+        <f>"INSERT INTO sd_planta ("&amp;$B$1&amp;", "&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;", "&amp;$F$1&amp;","&amp;$G$1&amp;", "&amp;$H$1&amp;","&amp;$I$1&amp;", "&amp;$J$1&amp;","&amp;$K$1&amp;", "&amp;$L$1&amp;", "&amp;$M$1&amp;",activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;I2&amp;", "&amp;J2&amp;", "&amp;K2&amp;", "&amp;L2&amp;", "&amp;M2&amp;", 1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues,activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Sur','Av. Las Malvinas 4589','San Juan de Miraflores',60, 10.10, 11.10, 24.5, 26.5, 300, 300, 0, 20, 1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2026,8 +2084,9 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2039,8 +2098,9 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2052,6 +2112,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2061,12 +2122,159 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C2:C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"INSERT INTO sd_estado_despacho (nombre) VALUES ('"&amp;B2&amp;"');"</f>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('En cola de revision');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C12" si="0">"INSERT INTO sd_estado_despacho (nombre) VALUES ('"&amp;B3&amp;"');"</f>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('En revision');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('Revision con incidencia');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('En peso vacio');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('Peso vacio con incidencia');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('En cola de carga');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('Cargando productos');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('En peso lleno');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('Revision de carga');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('En salida');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_estado_despacho (nombre) VALUES ('Terminado');</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sd_usuario" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="sd_orden_recojo" sheetId="13" r:id="rId13"/>
     <sheet name="sd_planta" sheetId="14" r:id="rId14"/>
     <sheet name="sd_estado_despacho" sheetId="15" r:id="rId15"/>
-    <sheet name="Hoja3" sheetId="16" r:id="rId16"/>
+    <sheet name="sd_despacho" sheetId="16" r:id="rId16"/>
+    <sheet name="sd_punto_control" sheetId="17" r:id="rId17"/>
+    <sheet name="sd_turno_revision" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="385">
   <si>
     <t>nombres</t>
   </si>
@@ -102,9 +104,6 @@
     <t>FERNANDEZ</t>
   </si>
   <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
     <t>08512548</t>
   </si>
   <si>
@@ -216,18 +215,6 @@
     <t>1975-04-17</t>
   </si>
   <si>
-    <t>r8t4b45sf</t>
-  </si>
-  <si>
-    <t>rgr1d5a8f</t>
-  </si>
-  <si>
-    <t>g5ds6dfe4</t>
-  </si>
-  <si>
-    <t>2rf1s8f4s6</t>
-  </si>
-  <si>
     <t>id_producto</t>
   </si>
   <si>
@@ -489,9 +476,6 @@
     <t>registrada</t>
   </si>
   <si>
-    <t>despachada</t>
-  </si>
-  <si>
     <t>Av. Izaguirre 4896</t>
   </si>
   <si>
@@ -534,12 +518,6 @@
     <t>cantidad</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>id_planta</t>
   </si>
   <si>
@@ -570,24 +548,6 @@
     <t>limite_sup_pesaje_despues</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>10.10</t>
-  </si>
-  <si>
-    <t>11.10</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -631,13 +591,613 @@
   </si>
   <si>
     <t>Planta Lima Sur</t>
+  </si>
+  <si>
+    <t>id_despacho</t>
+  </si>
+  <si>
+    <t>id_turno_revision</t>
+  </si>
+  <si>
+    <t>id_punto_control</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>id_usuario</t>
+  </si>
+  <si>
+    <t>45150148</t>
+  </si>
+  <si>
+    <t>24578521</t>
+  </si>
+  <si>
+    <t>54541257</t>
+  </si>
+  <si>
+    <t>14587625</t>
+  </si>
+  <si>
+    <t>13548952</t>
+  </si>
+  <si>
+    <t>21205548</t>
+  </si>
+  <si>
+    <t>13464879</t>
+  </si>
+  <si>
+    <t>12465488</t>
+  </si>
+  <si>
+    <t>01248755</t>
+  </si>
+  <si>
+    <t>01246589</t>
+  </si>
+  <si>
+    <t>12457845</t>
+  </si>
+  <si>
+    <t>15655845</t>
+  </si>
+  <si>
+    <t>54154548</t>
+  </si>
+  <si>
+    <t>21489468</t>
+  </si>
+  <si>
+    <t>1980-10-02</t>
+  </si>
+  <si>
+    <t>1982-08-31</t>
+  </si>
+  <si>
+    <t>1979-07-16</t>
+  </si>
+  <si>
+    <t>1981-08-05</t>
+  </si>
+  <si>
+    <t>1978-01-06</t>
+  </si>
+  <si>
+    <t>1985-03-30</t>
+  </si>
+  <si>
+    <t>1984-05-13</t>
+  </si>
+  <si>
+    <t>1975-04-18</t>
+  </si>
+  <si>
+    <t>1980-10-03</t>
+  </si>
+  <si>
+    <t>1979-07-17</t>
+  </si>
+  <si>
+    <t>1981-08-06</t>
+  </si>
+  <si>
+    <t>1978-01-07</t>
+  </si>
+  <si>
+    <t>1985-03-31</t>
+  </si>
+  <si>
+    <t>EUGENIO</t>
+  </si>
+  <si>
+    <t>LLANTOY</t>
+  </si>
+  <si>
+    <t>CARRANZA</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>DANIEL ANTONIO</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>MARIO ALBERTO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ALEJANDRO PEDRO</t>
+  </si>
+  <si>
+    <t>SERGIO ANDRES</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>GABRIEL ANGEL</t>
+  </si>
+  <si>
+    <t>EDUARDO VALENTIN</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>DE LA TORRE</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>GALARZA</t>
+  </si>
+  <si>
+    <t>FEDERICO RICARDO</t>
+  </si>
+  <si>
+    <t>IVAN PABLO</t>
+  </si>
+  <si>
+    <t>RODRIGO FRANCISCO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>DELGADO</t>
+  </si>
+  <si>
+    <t>CHACON</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>eugenio.llantoy@gmail.com</t>
+  </si>
+  <si>
+    <t>david.sanchez@gmail.com</t>
+  </si>
+  <si>
+    <t>juan.martinez@gmail.com</t>
+  </si>
+  <si>
+    <t>luis.lopez@gmail.com</t>
+  </si>
+  <si>
+    <t>sergio.ruiz@gmail.com</t>
+  </si>
+  <si>
+    <t>gabriel.garcia@gmail.com</t>
+  </si>
+  <si>
+    <t>eduardo.lopez@gmail.com</t>
+  </si>
+  <si>
+    <t>federico.cruz@gmail.com</t>
+  </si>
+  <si>
+    <t>claudio345</t>
+  </si>
+  <si>
+    <t>turno_dia</t>
+  </si>
+  <si>
+    <t>hora_inicio</t>
+  </si>
+  <si>
+    <t>hora_fin</t>
+  </si>
+  <si>
+    <t>es_aprobado</t>
+  </si>
+  <si>
+    <t>scripts</t>
+  </si>
+  <si>
+    <t>hora_inicio_despacho</t>
+  </si>
+  <si>
+    <t>hora_fin_despacho</t>
+  </si>
+  <si>
+    <t>valor_pesaje_antes</t>
+  </si>
+  <si>
+    <t>valor_pesaje_despues</t>
+  </si>
+  <si>
+    <t>hora_inicio_carga</t>
+  </si>
+  <si>
+    <t>hora_fin_carga</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Planta Lima Norte</t>
+  </si>
+  <si>
+    <t>Planta Lima Este</t>
+  </si>
+  <si>
+    <t>Av. Tulipanes 1248</t>
+  </si>
+  <si>
+    <t>Ancón</t>
+  </si>
+  <si>
+    <t>Av. Juliaca 3458</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2025-01-14</t>
+  </si>
+  <si>
+    <t>2024-11-23</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-07-06</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>JULIAN ANDRES</t>
+  </si>
+  <si>
+    <t>CASAS</t>
+  </si>
+  <si>
+    <t>41258874</t>
+  </si>
+  <si>
+    <t>12567517</t>
+  </si>
+  <si>
+    <t>marco.ramirez@gmail.com</t>
+  </si>
+  <si>
+    <t>carlos.gomez@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel.moreno@gmail.com</t>
+  </si>
+  <si>
+    <t>mario.torres@gmail.com</t>
+  </si>
+  <si>
+    <t>alejandro.rodriguez@gmail.com</t>
+  </si>
+  <si>
+    <t>ivan.delgado@gmail.com</t>
+  </si>
+  <si>
+    <t>rodrigo.soto@gmail.com</t>
+  </si>
+  <si>
+    <t>julian.alvarez@gmail.com</t>
+  </si>
+  <si>
+    <t>pedro482</t>
+  </si>
+  <si>
+    <t>cesar346</t>
+  </si>
+  <si>
+    <t>victor458</t>
+  </si>
+  <si>
+    <t>carlos165</t>
+  </si>
+  <si>
+    <t>daniel489</t>
+  </si>
+  <si>
+    <t>mario496</t>
+  </si>
+  <si>
+    <t>alejandro114</t>
+  </si>
+  <si>
+    <t>ivan389</t>
+  </si>
+  <si>
+    <t>rodrigo439</t>
+  </si>
+  <si>
+    <t>marco947</t>
+  </si>
+  <si>
+    <t>julian378</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>A1A-624</t>
+  </si>
+  <si>
+    <t>A1A-157</t>
+  </si>
+  <si>
+    <t>A1A-385</t>
+  </si>
+  <si>
+    <t>A1A-548</t>
+  </si>
+  <si>
+    <t>A1A-398</t>
+  </si>
+  <si>
+    <t>A1A-045</t>
+  </si>
+  <si>
+    <t>A1A-975</t>
+  </si>
+  <si>
+    <t>O3B-458</t>
+  </si>
+  <si>
+    <t>O3B-186</t>
+  </si>
+  <si>
+    <t>O3B-619</t>
+  </si>
+  <si>
+    <t>O3B-636</t>
+  </si>
+  <si>
+    <t>O3B-798</t>
+  </si>
+  <si>
+    <t>O3B-178</t>
+  </si>
+  <si>
+    <t>O3B-647</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2024-01-30</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>2025-06-17</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-03-09</t>
+  </si>
+  <si>
+    <t>1982-08-18</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>10+1</t>
+  </si>
+  <si>
+    <t>despachando</t>
+  </si>
+  <si>
+    <t>recogida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,8 +1213,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,6 +1232,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,10 +1257,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -699,8 +1280,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,292 +1578,862 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="I1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>48641955</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>78.2</v>
+      </c>
+      <c r="J2" t="str">
+        <f>"INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"',"&amp;I2&amp;",1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('JORGE SANDRO','TARAZONA','MUNAYCO','48641955','1980-10-01','jorge.tarazona@gmail.com',78.2,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15879523</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J25" si="0">"INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"',"&amp;I3&amp;",1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('JUAN CARLOS','BAUTISTA','ENRIQUEZ','15879523','1982-08-30','juan.bautista@gmail.com',64.9,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>75.2</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('ABEL ROBERTO','DIAZ','FERNANDEZ','08512548','1979-07-15','abel.diaz@gmail.com',75.2,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('EMANUEL ','VILLAFUERTE','TARAZONA','12012589','1981-08-04','emanuel.villafuerte@gmail.com',73.6,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6">
+        <v>69.8</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('CLAUDIO JORGE','AGUIRRE','HERRERA','23567845','1978-01-05','claudio.aguirre@gmail.com',69.8,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('PEDRO MARIO','ALVAREZ','GONZALEZ','12547895','1985-03-29','pedro.gonzalez@gmail.com',75.4,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8">
+        <v>76.5</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('CESAR FERNANDO','PEREZ','TORRES','24516874','1984-05-12','cesar.torres@gmail.com',76.5,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('VICTOR SERGIO','ROMERO','ACOSTA','30214587','1975-04-17','victor.acosta@gmail.com',78.9,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10">
+        <v>77.2607142857143</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('EUGENIO','LLANTOY','CARRANZA','45150148','1980-10-02','eugenio.llantoy@gmail.com',77.2607142857143,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>48641955</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" t="s">
+        <v>264</v>
+      </c>
+      <c r="I11">
+        <v>78.2</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('JUAN CARLOS','MARTINEZ','RODRIGUEZ','24578521','1982-08-31','juan.martinez@gmail.com',78.2,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" t="s">
+        <v>265</v>
+      </c>
+      <c r="I12">
+        <v>78.682142857142907</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('LUIS MIGUEL','LOPEZ','PEREZ','54541257','1979-07-16','luis.lopez@gmail.com',78.6821428571429,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I13">
+        <v>79.392857142857096</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('DAVID','SANCHEZ','GARCIA','14587625','1981-08-05','david.sanchez@gmail.com',79.3928571428571,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14">
+        <v>80.103571428571399</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('CARLOS ALBERTO','GOMEZ','CASTRO','13548952','1978-01-06','carlos.gomez@gmail.com',80.1035714285714,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>78.2</v>
-      </c>
-      <c r="I2" t="str">
-        <f>"INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"',"&amp;H2&amp;",1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('JORGE SANDRO','TARAZONA','MUNAYCO','48641955','1980-10-01','jorge.tarazona@gmail.com',78.2,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I15">
+        <v>80.814285714285703</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('DANIEL ANTONIO','MORENO','ARIAS','21205548','1985-03-30','daniel.moreno@gmail.com',80.8142857142857,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>15879523</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="I16">
+        <v>81.525000000000006</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('MARIO ALBERTO','TORRES','HERNANDEZ','13464879','1984-05-13','mario.torres@gmail.com',81.525,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="H3">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I9" si="0">"INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"',"&amp;H3&amp;",1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('JUAN CARLOS','BAUTISTA','ENRIQUEZ','15879523','1982-08-30','juan.bautista@gmail.com',64.9,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I17">
+        <v>82.235714285714295</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('ALEJANDRO PEDRO','RODRIGUEZ','DE LA TORRE','12465488','1975-04-18','alejandro.rodriguez@gmail.com',82.2357142857143,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" t="s">
+        <v>266</v>
+      </c>
+      <c r="I18">
+        <v>82.946428571428598</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('SERGIO ANDRES','RUIZ','SANCHEZ','01248755','1980-10-03','sergio.ruiz@gmail.com',82.9464285714286,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H19" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19">
+        <v>83.657142857142901</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('GABRIEL ANGEL','GARCIA','GALARZA','01246589','1982-08-18','gabriel.garcia@gmail.com',83.6571428571429,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" t="s">
+        <v>268</v>
+      </c>
+      <c r="I20">
+        <v>84.367857142857105</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('EDUARDO VALENTIN','LOPEZ','MARQUEZ','12457845','1979-07-17','eduardo.lopez@gmail.com',84.3678571428571,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I21">
+        <v>85.078571428571394</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('FEDERICO RICARDO','CRUZ','ESPINOZA','15655845','1981-08-06','federico.cruz@gmail.com',85.0785714285714,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="I22">
+        <v>85.789285714285697</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('IVAN PABLO','DELGADO','CHACON','54154548','1978-01-07','ivan.delgado@gmail.com',85.7892857142857,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="I23">
+        <v>86.5</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('RODRIGO FRANCISCO','SOTO','REYES','21489468','1985-03-31','rodrigo.soto@gmail.com',86.5,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>75.2</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('ABEL ROBERTO','DIAZ','FERNANDEZ','08512548','1979-07-15','abel.diaz@gmail.com',75.2,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="I24">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('MARCO ANTONIO','RAMIREZ','DELGADO','41258874','1981-08-05','marco.ramirez@gmail.com',79.4,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('EMANUEL ','VILLAFUERTE','DOMINGUEZ','12012589','1981-08-04','emanuel.villafuerte@gmail.com',73.6,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6">
-        <v>69.8</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('CLAUDIO JORGE','AGUIRRE','HERRERA','23567845','1978-01-05','claudio.aguirre@gmail.com',69.8,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('PEDRO MARIO','ALVAREZ','GONZALEZ','12547895','1985-03-29','pedro.gonzalez@gmail.com',75.4,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8">
-        <v>76.5</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('CESAR FERNANDO','PEREZ','TORRES','24516874','1984-05-12','cesar.torres@gmail.com',76.5,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('VICTOR SERGIO','ROMERO','ACOSTA','30214587','1975-04-17','victor.acosta@gmail.com',78.9,1,sysdate(),'admin');</v>
-      </c>
+      <c r="E25" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I25">
+        <v>89.4</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_usuario (nombres, primer_apellido, segundo_apellido, dni, fecha_nacimiento, email, peso, activo, fecha_registro, usuario_registro) VALUES ('JULIAN ANDRES','ALVAREZ','CASAS','12567517','1984-05-13','julian.alvarez@gmail.com',89.4,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H24" r:id="rId1"/>
+    <hyperlink ref="H14" r:id="rId2"/>
+    <hyperlink ref="H15" r:id="rId3"/>
+    <hyperlink ref="H16" r:id="rId4"/>
+    <hyperlink ref="H17" r:id="rId5"/>
+    <hyperlink ref="H22" r:id="rId6"/>
+    <hyperlink ref="H23" r:id="rId7"/>
+    <hyperlink ref="H25" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1283,13 +2452,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>6</v>
@@ -1300,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2">
         <v>58945785216</v>
@@ -1315,10 +2484,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D5" si="0">"INSERT INTO sd_cliente ("&amp;$B$1&amp;", "&amp;$C$1&amp;",activo, fecha_registro, usuario_registro) VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"',1,sysdate(),'admin');"</f>
@@ -1330,10 +2499,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1345,10 +2514,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1365,7 +2534,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,16 +2547,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -1401,10 +2570,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E2" t="str">
         <f>"INSERT INTO sd_sede_cliente(id_cliente, direccion, distrito, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"','"&amp;D2&amp;"',1,sysdate(),'admin');"</f>
@@ -1419,10 +2588,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E9" si="0">"INSERT INTO sd_sede_cliente(id_cliente, direccion, distrito, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;",'"&amp;C3&amp;"','"&amp;D3&amp;"',1,sysdate(),'admin');"</f>
@@ -1437,10 +2606,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -1455,10 +2624,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -1473,10 +2642,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -1491,10 +2660,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -1509,10 +2678,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -1527,10 +2696,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -1544,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,10 +2726,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -1571,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C2" t="str">
         <f>"INSERT INTO sd_estado_orden (nombre) VALUES ('"&amp;B2&amp;"');"</f>
@@ -1583,11 +2752,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>383</v>
       </c>
       <c r="C3" t="str">
         <f>"INSERT INTO sd_estado_orden (nombre) VALUES ('"&amp;B3&amp;"');"</f>
-        <v>INSERT INTO sd_estado_orden (nombre) VALUES ('despachada');</v>
+        <v>INSERT INTO sd_estado_orden (nombre) VALUES ('despachando');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"INSERT INTO sd_estado_orden (nombre) VALUES ('"&amp;B4&amp;"');"</f>
+        <v>INSERT INTO sd_estado_orden (nombre) VALUES ('recogida');</v>
       </c>
     </row>
   </sheetData>
@@ -1597,53 +2778,55 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
       </c>
       <c r="C2" s="9">
         <v>3</v>
@@ -1652,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -1665,15 +2848,15 @@
       </c>
       <c r="I2" t="str">
         <f>"INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values ("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;",1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (1,3,1,1,1,6,800,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (1,3,1,2,1,6,800,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
+      <c r="B3" s="9">
+        <v>1</v>
       </c>
       <c r="C3" s="9">
         <v>4</v>
@@ -1694,16 +2877,16 @@
         <v>600</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I9" si="0">"INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values ("&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;",1,sysdate(),'admin');"</f>
+        <f t="shared" ref="I3:I26" si="0">"INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values ("&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;",1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (1,4,2,1,1,4,600,1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>81</v>
+      <c r="B4" s="9">
+        <v>1</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -1725,15 +2908,15 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (2,2,3,1,3,2,1500,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (1,2,3,1,3,2,1500,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>166</v>
+      <c r="B5" s="9">
+        <v>2</v>
       </c>
       <c r="C5" s="9">
         <v>5</v>
@@ -1742,7 +2925,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="9">
         <v>5</v>
@@ -1755,15 +2938,15 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (3,5,4,1,5,2,1800,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (2,5,4,2,5,2,1800,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
       </c>
       <c r="C6" s="9">
         <v>7</v>
@@ -1785,15 +2968,15 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (4,7,1,1,3,6,750,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (2,7,1,1,3,6,750,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -1815,15 +2998,15 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (1,1,5,1,1,4,1200,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (2,1,5,1,1,4,1200,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>81</v>
+      <c r="B8" s="9">
+        <v>3</v>
       </c>
       <c r="C8" s="8">
         <v>8</v>
@@ -1832,7 +3015,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1845,15 +3028,15 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (2,8,6,1,5,6,1350,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (3,8,6,2,5,6,1350,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>167</v>
+      <c r="B9" s="9">
+        <v>3</v>
       </c>
       <c r="C9" s="8">
         <v>6</v>
@@ -1875,91 +3058,601 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (4,6,3,1,3,4,1750,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (3,6,3,1,3,4,1750,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9">
+        <v>800</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (3,1,2,1,1,6,800,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1600</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (4,2,4,2,3,2,1600,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>825</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (5,5,1,2,5,2,825,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>6</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1700</v>
+      </c>
+      <c r="I13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (5,4,3,1,1,6,1700,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>750</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (6,1,1,2,3,4,750,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>680</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (6,4,1,1,5,6,680,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>1350</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (7,6,5,2,1,4,1350,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1350</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (8,3,4,2,3,2,1350,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1200</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (8,4,6,1,5,2,1200,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>850</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (8,5,2,1,1,6,850,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>720</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (9,2,1,1,3,4,720,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>1500</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (10,4,3,1,5,6,1500,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>750</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (10,1,1,1,1,2,750,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>1400</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (11,5,5,1,3,4,1400,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>1700</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (12,2,4,1,5,4,1700,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>1600</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (12,3,6,1,3,6,1600,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>900</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (12,1,2,1,1,2,900,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" t="s">
         <v>66</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="9">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="9">
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G33" s="9">
         <v>6</v>
       </c>
-      <c r="J16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" t="s">
-        <v>75</v>
+      <c r="H33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1972,12 +3665,12 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -1985,43 +3678,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>6</v>
@@ -2032,73 +3725,138 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>184</v>
+        <v>143</v>
+      </c>
+      <c r="E2" s="9">
+        <v>60</v>
+      </c>
+      <c r="F2" s="13">
+        <v>10.1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>11.1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>24.5</v>
+      </c>
+      <c r="I2" s="13">
+        <v>26.5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>300</v>
+      </c>
+      <c r="K2" s="8">
+        <v>300</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>20</v>
       </c>
       <c r="N2" t="str">
         <f>"INSERT INTO sd_planta ("&amp;$B$1&amp;", "&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;", "&amp;$F$1&amp;","&amp;$G$1&amp;", "&amp;$H$1&amp;","&amp;$I$1&amp;", "&amp;$J$1&amp;","&amp;$K$1&amp;", "&amp;$L$1&amp;", "&amp;$M$1&amp;",activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;I2&amp;", "&amp;J2&amp;", "&amp;K2&amp;", "&amp;L2&amp;", "&amp;M2&amp;", 1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues,activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Sur','Av. Las Malvinas 4589','San Juan de Miraflores',60, 10.10, 11.10, 24.5, 26.5, 300, 300, 0, 20, 1,sysdate(),'admin');</v>
+        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues,activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Sur','Av. Las Malvinas 4589','San Juan de Miraflores',60, 10.1, 11.1, 24.5, 26.5, 300, 300, 0, 20, 1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="9">
+        <v>50</v>
+      </c>
+      <c r="F3" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="G3" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="H3" s="13">
+        <f>H2+3</f>
+        <v>27.5</v>
+      </c>
+      <c r="I3" s="13">
+        <f>I2+3</f>
+        <v>29.5</v>
+      </c>
+      <c r="J3" s="8">
+        <v>320</v>
+      </c>
+      <c r="K3" s="8">
+        <v>300</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>20</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N4" si="0">"INSERT INTO sd_planta ("&amp;$B$1&amp;", "&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;", "&amp;$F$1&amp;","&amp;$G$1&amp;", "&amp;$H$1&amp;","&amp;$I$1&amp;", "&amp;$J$1&amp;","&amp;$K$1&amp;", "&amp;$L$1&amp;", "&amp;$M$1&amp;",activo, fecha_registro, usuario_registro) VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;", "&amp;K3&amp;", "&amp;L3&amp;", "&amp;M3&amp;", 1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues,activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Norte','Av. Tulipanes 1248','Ancón',50, 12.5, 13.5, 27.5, 29.5, 320, 300, 0, 20, 1,sysdate(),'admin');</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="9">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13">
+        <v>8</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4" si="1">H3-5</f>
+        <v>22.5</v>
+      </c>
+      <c r="I4" s="13">
+        <v>24</v>
+      </c>
+      <c r="J4" s="8">
+        <v>300</v>
+      </c>
+      <c r="K4" s="8">
+        <v>300</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>18</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues,activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Este','Av. Juliaca 3458','Ate',40, 7, 8, 22.5, 24, 300, 300, 0, 18, 1,sysdate(),'admin');</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -2125,7 +3883,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C2:C12"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2136,10 +3894,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2147,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C2" t="str">
         <f>"INSERT INTO sd_estado_despacho (nombre) VALUES ('"&amp;B2&amp;"');"</f>
@@ -2159,7 +3917,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C12" si="0">"INSERT INTO sd_estado_despacho (nombre) VALUES ('"&amp;B3&amp;"');"</f>
@@ -2171,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2183,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2195,7 +3953,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -2207,7 +3965,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2219,7 +3977,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -2231,7 +3989,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -2243,7 +4001,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2255,7 +4013,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2267,7 +4025,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2281,113 +4039,1438 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="K2" s="14" t="str">
+        <f>"INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", 1, sysdate(), 'admin');"</f>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 1, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="14" t="str">
+        <f t="shared" ref="K3:K13" si="0">"INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", "&amp;E3&amp;", 1, sysdate(), 'admin');"</f>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 4, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" t="s">
+        <v>283</v>
+      </c>
+      <c r="J4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K4" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 7, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 10, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 11, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 13, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 15, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" t="s">
+        <v>283</v>
+      </c>
+      <c r="K9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 16, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 19, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 20, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>22</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 22, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 23, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K21" s="11">
+        <v>3</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K23" s="11">
+        <v>5</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;", '"&amp;C2&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES (1, 'C1',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D11" si="0">"INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;", '"&amp;C3&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES (1, 'C2',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES (1, 'C3',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES (1, 'C4',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES (1, 'C5',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES (1, 'C6',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES (1, 'C7',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES (1, 'C8',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES (1, 'C9',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_punto_control (id_planta, codigo, activo, fecha_registro, usuario_registro) VALUES (1, 'C10',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;", 1, sysdate(), 'admin');"</f>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (1, 5, 6, 1, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I11" si="0">"INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", "&amp;E3&amp;", "&amp;F3&amp;", 1, sysdate(), 'admin');"</f>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (2, 4, 2, 2, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (3, 7, 10, 3, now(), 1, sysdate(), 'admin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (4, null, null, 4, null, 1, sysdate(), 'admin');</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (5, null, null, 5, null, 1, sysdate(), 'admin');</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="16">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (6, null, null, 6, null, 1, sysdate(), 'admin');</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="16">
+        <v>7</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (7, null, null, 7, null, 1, sysdate(), 'admin');</v>
+      </c>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="16">
+        <v>8</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (8, null, null, 8, null, 1, sysdate(), 'admin');</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="15">
+        <v>9</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (9, null, null, 9, null, 1, sysdate(), 'admin');</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>10</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="15">
+        <v>10</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (10, null, null, 10, null, 1, sysdate(), 'admin');</v>
+      </c>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="20">
+        <f>VLOOKUP(B2,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>48641955</v>
+      </c>
+      <c r="E2" s="20">
         <v>8421</v>
       </c>
-      <c r="D2" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"',1,sysdate(),'admin');"</f>
+      <c r="F2" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"','"&amp;E2&amp;"',1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (1,'2024-10-04','8421',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="20">
+        <f>VLOOKUP(B3,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>15879523</v>
+      </c>
+      <c r="E3" s="20">
         <v>1269</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D5" si="0">"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"',1,sysdate(),'admin');"</f>
+      <c r="F3" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;",'"&amp;C3&amp;"','"&amp;E3&amp;"',1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (2,'2025-03-06','1269',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="20" t="str">
+        <f>VLOOKUP(B4,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>08512548</v>
+      </c>
+      <c r="E4" s="20">
         <v>4589</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
+      <c r="F4" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B4&amp;",'"&amp;C4&amp;"','"&amp;E4&amp;"',1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (3,'2024-08-14','4589',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="20" t="str">
+        <f>VLOOKUP(B5,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>12012589</v>
+      </c>
+      <c r="E5" s="20">
         <v>3586</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
+      <c r="F5" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B5&amp;",'"&amp;C5&amp;"','"&amp;E5&amp;"',1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (4,'2024-01-28','3586',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="20" t="str">
+        <f>VLOOKUP(B6,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>45150148</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3458</v>
+      </c>
+      <c r="F6" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B6&amp;",'"&amp;C6&amp;"','"&amp;E6&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (9,'2025-01-14','3458',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="20" t="str">
+        <f>VLOOKUP(B7,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>24578521</v>
+      </c>
+      <c r="E7" s="20">
+        <v>8547</v>
+      </c>
+      <c r="F7" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B7&amp;",'"&amp;C7&amp;"','"&amp;E7&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (10,'2025-08-14','8547',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f>VLOOKUP(B8,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>54541257</v>
+      </c>
+      <c r="E8" s="20">
+        <v>3138</v>
+      </c>
+      <c r="F8" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B8&amp;",'"&amp;C8&amp;"','"&amp;E8&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (11,'2024-11-23','3138',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f>VLOOKUP(B9,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>14587625</v>
+      </c>
+      <c r="E9" s="20">
+        <v>9521</v>
+      </c>
+      <c r="F9" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B9&amp;",'"&amp;C9&amp;"','"&amp;E9&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (12,'2025-01-14','9521',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="20" t="str">
+        <f>VLOOKUP(B10,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>01248755</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2415</v>
+      </c>
+      <c r="F10" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B10&amp;",'"&amp;C10&amp;"','"&amp;E10&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (17,'2025-02-25','2415',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>18</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f>VLOOKUP(B11,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>01246589</v>
+      </c>
+      <c r="E11" s="22">
+        <v>2205</v>
+      </c>
+      <c r="F11" s="15" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B11&amp;",'"&amp;C11&amp;"','"&amp;E11&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (18,'2025-04-14','2205',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="20" t="str">
+        <f>VLOOKUP(B12,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>12457845</v>
+      </c>
+      <c r="E12" s="20">
+        <v>6982</v>
+      </c>
+      <c r="F12" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B12&amp;",'"&amp;C12&amp;"','"&amp;E12&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (19,'2024-10-21','6982',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f>VLOOKUP(B13,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>15655845</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2492</v>
+      </c>
+      <c r="F13" t="str">
+        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B13&amp;",'"&amp;C13&amp;"','"&amp;E13&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (20,'2024-07-06','2492',1,sysdate(),'admin');</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2396,71 +5479,206 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"',1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (5,'r8t4b45sf',1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (5,'claudio345',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C5" si="0">"INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"',1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (6,'rgr1d5a8f',1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D13" si="0">"INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;",'"&amp;C3&amp;"',1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (6,'pedro482',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (7,'g5ds6dfe4',1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (7,'cesar346',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (8,'2rf1s8f4s6',1,sysdate(),'admin');</v>
+      <c r="C5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (8,'victor458',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (13,'carlos165',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (14,'daniel489',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (15,'mario496',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (16,'alejandro114',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (21,'ivan389',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (22,'rodrigo439',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (23,'marco947',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (24,'julian378',1,sysdate(),'admin');</v>
       </c>
     </row>
   </sheetData>
@@ -2473,17 +5691,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C4" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -2494,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" t="str">
         <f>"INSERT INTO sd_producto(nombre, activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"',1,sysdate(),'admin');"</f>
@@ -2506,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" si="0">"INSERT INTO sd_producto(nombre, activo, fecha_registro, usuario_registro) VALUES ('"&amp;B3&amp;"',1,sysdate(),'admin');"</f>
@@ -2518,7 +5736,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2535,17 +5753,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -2556,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" t="str">
         <f>"INSERT INTO sd_marca("&amp;$B$1&amp;", activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"',1,sysdate(),'admin');"</f>
@@ -2568,7 +5786,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C7" si="0">"INSERT INTO sd_marca("&amp;$B$1&amp;", activo, fecha_registro, usuario_registro) VALUES ('"&amp;B3&amp;"',1,sysdate(),'admin');"</f>
@@ -2580,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2592,7 +5810,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2604,7 +5822,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -2616,7 +5834,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2643,10 +5861,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -2657,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C2" t="str">
         <f>"INSERT INTO sd_unidad("&amp;$B$1&amp;", activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"',1,sysdate(),'admin');"</f>
@@ -2669,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C5" si="0">"INSERT INTO sd_unidad("&amp;$B$1&amp;", activo, fecha_registro, usuario_registro) VALUES ('"&amp;B3&amp;"',1,sysdate(),'admin');"</f>
@@ -2681,7 +5899,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2693,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2722,19 +5940,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -2826,7 +6044,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
@@ -2847,7 +6065,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="9">
         <v>3</v>
@@ -2936,7 +6154,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(B6,sd_producto!$A$2:$B$4,2,0)</f>
@@ -2953,7 +6171,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F13" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(B7,sd_producto!$A$2:$B$4,2,0)</f>
@@ -2985,10 +6203,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -2999,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C2" t="str">
         <f>"INSERT INTO sd_tipo_vehiculo (id_tipo_vehiculo, nombre) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"');"</f>
@@ -3011,7 +6229,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C3" t="str">
         <f>"INSERT INTO sd_tipo_vehiculo (id_tipo_vehiculo, nombre) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"');"</f>
@@ -3025,10 +6243,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K2:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3042,34 +6260,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>6</v>
@@ -3080,31 +6298,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K2" t="str">
         <f>"INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values ("&amp;B2&amp;",'"&amp;C2&amp;"',"&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;",'"&amp;H2&amp;"',"&amp;I2&amp;",'"&amp;J2&amp;"',1,sysdate(),'admin');"</f>
@@ -3116,34 +6334,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K7" si="0">"INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values ("&amp;B3&amp;",'"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;",'"&amp;H3&amp;"',"&amp;I3&amp;",'"&amp;J3&amp;"',1,sysdate(),'admin');"</f>
+        <f t="shared" ref="K3:K21" si="0">"INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values ("&amp;B3&amp;",'"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;",'"&amp;H3&amp;"',"&amp;I3&amp;",'"&amp;J3&amp;"',1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-678',12,2.4,2,5500,'2025-08-14',1,'2025-03-06',1,sysdate(),'admin');</v>
       </c>
     </row>
@@ -3152,31 +6370,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
@@ -3188,31 +6406,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
@@ -3221,34 +6439,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
@@ -3257,38 +6475,542 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-258',12.5,2.6,2.4,8300,'2025-03-06',1,'2025-08-14',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (1,'A1A-624',18,2.4,3.8,8000,'2024-10-09',1,'2025-06-16',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-458',24,2.4,2,5500,'2025-08-15',1,'2025-03-07',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (1,'A1A-157',6.3,2.5,3.9,7500,'2025-02-28',1,'2024-08-15',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-186',13.6,2.5,2.2,6700,'2025-02-27',1,'2025-04-05',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-258',12.5,2.6,2.4,8300,'2025-03-06',1,'2025-08-14',1,sysdate(),'admin');</v>
+      <c r="J12" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (1,'A1A-385',6.6,2.6,4.1,7200,'2024-08-15',0,'2025-02-28',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-619',12.6,2.6,2.4,8300,'2025-03-07',1,'2025-08-15',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (1,'A1A-548',30,2.4,3.9,8000,'2024-10-10',1,'2025-06-17',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-636',36,2.4,2,5500,'2025-08-16',1,'2025-03-08',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (1,'A1A-398',6.4,2.5,3.10,7500,'2025-12-29',1,'2024-08-16',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-798',13.7,2.5,2.2,6700,'2024-01-30',1,'2024-01-30',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (1,'A1A-045',6.7,2.6,4.2,7200,'2024-08-16',0,'2025-12-29',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-178',12.7,2.6,2.4,8300,'2025-03-08',1,'2025-08-16',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (1,'A1A-975',42,2.4,3.10,8000,'2024-10-11',1,'2025-06-18',1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-647',48,2.4,2,5500,'2025-08-17',1,'2025-03-09',1,sysdate(),'admin');</v>
       </c>
     </row>
   </sheetData>

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="sd_usuario" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="389">
   <si>
     <t>nombres</t>
   </si>
@@ -1191,6 +1191,18 @@
   </si>
   <si>
     <t>recogida</t>
+  </si>
+  <si>
+    <t>LORETO</t>
+  </si>
+  <si>
+    <t>JULIACA</t>
+  </si>
+  <si>
+    <t>OROYA</t>
+  </si>
+  <si>
+    <t>peso_unidad</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2454,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2781,7 +2793,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:H26"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4796,7 +4808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5:I9"/>
     </sheetView>
   </sheetViews>
@@ -5178,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5226,7 +5238,7 @@
         <v>8421</v>
       </c>
       <c r="F2" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"','"&amp;E2&amp;"',1,sysdate(),'admin');"</f>
+        <f t="shared" ref="F2:F13" si="0">"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"','"&amp;E2&amp;"',1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (1,'2024-10-04','8421',1,sysdate(),'admin');</v>
       </c>
     </row>
@@ -5248,7 +5260,7 @@
         <v>1269</v>
       </c>
       <c r="F3" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;",'"&amp;C3&amp;"','"&amp;E3&amp;"',1,sysdate(),'admin');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (2,'2025-03-06','1269',1,sysdate(),'admin');</v>
       </c>
     </row>
@@ -5270,7 +5282,7 @@
         <v>4589</v>
       </c>
       <c r="F4" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B4&amp;",'"&amp;C4&amp;"','"&amp;E4&amp;"',1,sysdate(),'admin');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (3,'2024-08-14','4589',1,sysdate(),'admin');</v>
       </c>
     </row>
@@ -5292,7 +5304,7 @@
         <v>3586</v>
       </c>
       <c r="F5" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B5&amp;",'"&amp;C5&amp;"','"&amp;E5&amp;"',1,sysdate(),'admin');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (4,'2024-01-28','3586',1,sysdate(),'admin');</v>
       </c>
     </row>
@@ -5314,7 +5326,7 @@
         <v>3458</v>
       </c>
       <c r="F6" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B6&amp;",'"&amp;C6&amp;"','"&amp;E6&amp;"',1,sysdate(),'admin');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (9,'2025-01-14','3458',1,sysdate(),'admin');</v>
       </c>
     </row>
@@ -5336,7 +5348,7 @@
         <v>8547</v>
       </c>
       <c r="F7" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B7&amp;",'"&amp;C7&amp;"','"&amp;E7&amp;"',1,sysdate(),'admin');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (10,'2025-08-14','8547',1,sysdate(),'admin');</v>
       </c>
     </row>
@@ -5358,7 +5370,7 @@
         <v>3138</v>
       </c>
       <c r="F8" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B8&amp;",'"&amp;C8&amp;"','"&amp;E8&amp;"',1,sysdate(),'admin');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (11,'2024-11-23','3138',1,sysdate(),'admin');</v>
       </c>
     </row>
@@ -5380,29 +5392,29 @@
         <v>9521</v>
       </c>
       <c r="F9" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B9&amp;",'"&amp;C9&amp;"','"&amp;E9&amp;"',1,sysdate(),'admin');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (12,'2025-01-14','9521',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="20" t="str">
+      <c r="D10" s="22" t="str">
         <f>VLOOKUP(B10,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>01248755</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="22">
         <v>2415</v>
       </c>
-      <c r="F10" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B10&amp;",'"&amp;C10&amp;"','"&amp;E10&amp;"',1,sysdate(),'admin');"</f>
+      <c r="F10" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (17,'2025-02-25','2415',1,sysdate(),'admin');</v>
       </c>
     </row>
@@ -5424,51 +5436,51 @@
         <v>2205</v>
       </c>
       <c r="F11" s="15" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B11&amp;",'"&amp;C11&amp;"','"&amp;E11&amp;"',1,sysdate(),'admin');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (18,'2025-04-14','2205',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="15">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="20" t="str">
+      <c r="D12" s="22" t="str">
         <f>VLOOKUP(B12,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>12457845</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="22">
         <v>6982</v>
       </c>
-      <c r="F12" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B12&amp;",'"&amp;C12&amp;"','"&amp;E12&amp;"',1,sysdate(),'admin');"</f>
+      <c r="F12" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (19,'2024-10-21','6982',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="15">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="20" t="str">
+      <c r="D13" s="22" t="str">
         <f>VLOOKUP(B13,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>15655845</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="22">
         <v>2492</v>
       </c>
-      <c r="F13" t="str">
-        <f>"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B13&amp;",'"&amp;C13&amp;"','"&amp;E13&amp;"',1,sysdate(),'admin');"</f>
+      <c r="F13" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (20,'2024-07-06','2492',1,sysdate(),'admin');</v>
       </c>
     </row>
@@ -5691,7 +5703,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C2:C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5753,7 +5765,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5774,11 +5786,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>385</v>
       </c>
       <c r="C2" t="str">
         <f>"INSERT INTO sd_marca("&amp;$B$1&amp;", activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"',1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_marca(nombre, activo, fecha_registro, usuario_registro) VALUES ('APU',1,sysdate(),'admin');</v>
+        <v>INSERT INTO sd_marca(nombre, activo, fecha_registro, usuario_registro) VALUES ('LORETO',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5786,11 +5798,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>387</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C7" si="0">"INSERT INTO sd_marca("&amp;$B$1&amp;", activo, fecha_registro, usuario_registro) VALUES ('"&amp;B3&amp;"',1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_marca(nombre, activo, fecha_registro, usuario_registro) VALUES ('SOL',1,sysdate(),'admin');</v>
+        <v>INSERT INTO sd_marca(nombre, activo, fecha_registro, usuario_registro) VALUES ('OROYA',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5798,11 +5810,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>386</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_marca(nombre, activo, fecha_registro, usuario_registro) VALUES ('PIRAMIDE',1,sysdate(),'admin');</v>
+        <v>INSERT INTO sd_marca(nombre, activo, fecha_registro, usuario_registro) VALUES ('JULIACA',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5925,20 +5937,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.77734375" style="2" customWidth="1"/>
+    <col min="3" max="6" width="14.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
@@ -5952,13 +5964,16 @@
         <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5972,14 +5987,17 @@
         <v>1</v>
       </c>
       <c r="E2" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="F2" s="9">
         <v>10000</v>
       </c>
-      <c r="F2" t="str">
-        <f>"INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;",1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (1,1,1,10000,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <f>"INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, peso_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;", "&amp;F2&amp;",1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, peso_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (1,1,1,42.5, 10000,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5993,14 +6011,17 @@
         <v>2</v>
       </c>
       <c r="E3" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="F3" s="9">
         <v>15000</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F7" si="0">"INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;",1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (1,2,2,15000,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="0">"INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, peso_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;", "&amp;F3&amp;",1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, peso_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (1,2,2,52.5, 15000,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6014,14 +6035,17 @@
         <v>3</v>
       </c>
       <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
         <v>12000</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (2,3,3,12000,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, peso_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (2,3,3,5, 12000,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6035,14 +6059,17 @@
         <v>3</v>
       </c>
       <c r="E5" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="9">
         <v>18000</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (2,5,3,18000,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, peso_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (2,5,3,3.5, 18000,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -6056,14 +6083,17 @@
         <v>4</v>
       </c>
       <c r="E6" s="9">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9">
         <v>8000</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (3,4,4,8000,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, peso_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (3,4,4,8, 8000,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -6077,111 +6107,108 @@
         <v>4</v>
       </c>
       <c r="E7" s="9">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
         <v>13500</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (3,6,4,13500,1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_producto_venta (id_producto, id_marca, id_unidad, peso_unidad, stock_actual, activo, fecha_registro, usuario_registro) VALUES (3,6,4,9, 13500,1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
         <f>VLOOKUP(B2,sd_producto!$A$2:$B$4,2,0)</f>
         <v>Cemento</v>
       </c>
-      <c r="H8" t="str">
-        <f>VLOOKUP(C2,sd_marca!$A$2:$B$7,2,0)</f>
-        <v>APU</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="I8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J8" t="str">
         <f>VLOOKUP(D2,sd_unidad!$A$2:$B$7,2,0)</f>
         <v>bolsas de 42.5 kg</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F9" s="2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f>VLOOKUP(B3,sd_producto!$A$2:$B$4,2,0)</f>
         <v>Cemento</v>
       </c>
-      <c r="H9" t="str">
-        <f>VLOOKUP(C3,sd_marca!$A$2:$B$7,2,0)</f>
-        <v>SOL</v>
-      </c>
-      <c r="I9" t="str">
+      <c r="I9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J9" t="str">
         <f>VLOOKUP(D3,sd_unidad!$A$2:$B$7,2,0)</f>
         <v>bolsas de 52.5 kg</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F10" s="2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f>VLOOKUP(B4,sd_producto!$A$2:$B$4,2,0)</f>
         <v>Ladrillo</v>
       </c>
-      <c r="H10" t="str">
-        <f>VLOOKUP(C4,sd_marca!$A$2:$B$7,2,0)</f>
-        <v>PIRAMIDE</v>
-      </c>
-      <c r="I10" t="str">
+      <c r="I10" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J10" t="str">
         <f>VLOOKUP(D4,sd_unidad!$A$2:$B$7,2,0)</f>
         <v>ladrillos</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F11" s="2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f>VLOOKUP(B5,sd_producto!$A$2:$B$4,2,0)</f>
         <v>Ladrillo</v>
       </c>
-      <c r="H11" t="str">
-        <f>VLOOKUP(C5,sd_marca!$A$2:$B$7,2,0)</f>
-        <v>LARK</v>
-      </c>
-      <c r="I11" t="str">
+      <c r="I11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="str">
         <f>VLOOKUP(D5,sd_unidad!$A$2:$B$7,2,0)</f>
         <v>ladrillos</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F12" s="2" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <f>VLOOKUP(B6,sd_producto!$A$2:$B$4,2,0)</f>
         <v>Pallets</v>
       </c>
-      <c r="H12" t="str">
-        <f>VLOOKUP(C6,sd_marca!$A$2:$B$7,2,0)</f>
-        <v>BASA</v>
-      </c>
-      <c r="I12" t="str">
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="str">
         <f>VLOOKUP(D6,sd_unidad!$A$2:$B$7,2,0)</f>
         <v>pallets</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F13" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <f>VLOOKUP(B7,sd_producto!$A$2:$B$4,2,0)</f>
         <v>Pallets</v>
       </c>
-      <c r="H13" t="str">
-        <f>VLOOKUP(C7,sd_marca!$A$2:$B$7,2,0)</f>
-        <v>CHEP</v>
-      </c>
-      <c r="I13" t="str">
+      <c r="I13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="str">
         <f>VLOOKUP(D7,sd_unidad!$A$2:$B$7,2,0)</f>
         <v>pallets</v>
       </c>

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sd_usuario" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="sd_despacho" sheetId="16" r:id="rId16"/>
     <sheet name="sd_punto_control" sheetId="17" r:id="rId17"/>
     <sheet name="sd_turno_revision" sheetId="18" r:id="rId18"/>
+    <sheet name="sd_incidencia" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="394">
   <si>
     <t>nombres</t>
   </si>
@@ -1184,9 +1185,6 @@
     <t>2025-04-05</t>
   </si>
   <si>
-    <t>10+1</t>
-  </si>
-  <si>
     <t>despachando</t>
   </si>
   <si>
@@ -1203,6 +1201,24 @@
   </si>
   <si>
     <t>peso_unidad</t>
+  </si>
+  <si>
+    <t>id_incidente</t>
+  </si>
+  <si>
+    <t>Mal estado de la plataforma</t>
+  </si>
+  <si>
+    <t>Llantas en mal estado</t>
+  </si>
+  <si>
+    <t>No contar con EPP</t>
+  </si>
+  <si>
+    <t>No contar con botiquín</t>
+  </si>
+  <si>
+    <t>No contar con extintor</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1296,7 +1312,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1305,8 +1320,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1593,7 +1613,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2454,7 +2474,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="D5" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2546,7 +2566,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E9" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2728,7 +2748,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2764,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C3" t="str">
         <f>"INSERT INTO sd_estado_orden (nombre) VALUES ('"&amp;B3&amp;"');"</f>
@@ -2776,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C4" t="str">
         <f>"INSERT INTO sd_estado_orden (nombre) VALUES ('"&amp;B4&amp;"');"</f>
@@ -2793,7 +2813,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3164,13 +3184,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>5</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>4</v>
       </c>
       <c r="D13" s="15">
@@ -3267,7 +3287,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3280,7 +3300,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (7,6,5,2,1,4,1350,1,sysdate(),'admin');</v>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (7,6,5,1,1,4,1350,1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3297,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3310,7 +3330,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (8,3,4,2,3,2,1350,1,sysdate(),'admin');</v>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (8,3,4,1,3,2,1350,1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3895,7 +3915,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="C12" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4054,7 +4074,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4313,74 +4333,74 @@
         <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 13, 1, now(), 1, sysdate(), 'admin');</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I8" t="s">
-        <v>283</v>
-      </c>
-      <c r="J8" t="s">
-        <v>283</v>
-      </c>
-      <c r="K8" s="14" t="str">
+      <c r="F8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 15, 1, now(), 1, sysdate(), 'admin');</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" t="s">
-        <v>283</v>
-      </c>
-      <c r="H9" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" t="s">
-        <v>283</v>
-      </c>
-      <c r="J9" t="s">
-        <v>283</v>
-      </c>
-      <c r="K9" s="14" t="str">
+      <c r="F9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 16, 1, now(), 1, sysdate(), 'admin');</v>
       </c>
@@ -4629,7 +4649,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4806,10 +4826,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4818,7 +4838,7 @@
     <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>186</v>
       </c>
@@ -4847,7 +4867,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4877,7 +4897,7 @@
         <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (1, 5, 6, 1, now(), 1, sysdate(), 'admin');</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4903,11 +4923,11 @@
         <v>283</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I11" si="0">"INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", "&amp;E3&amp;", "&amp;F3&amp;", 1, sysdate(), 'admin');"</f>
+        <f t="shared" ref="I3:I12" si="0">"INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", "&amp;E3&amp;", "&amp;F3&amp;", 1, sysdate(), 'admin');"</f>
         <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (2, 4, 2, 2, now(), 1, sysdate(), 'admin');</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4937,252 +4957,338 @@
         <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (3, 7, 10, 3, now(), 1, sysdate(), 'admin');</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="C5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="I5" t="str">
+      <c r="F5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (4, null, null, 4, null, 1, sysdate(), 'admin');</v>
       </c>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="C6" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="11">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="I6" t="str">
+      <c r="F6" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (5, null, null, 5, null, 1, sysdate(), 'admin');</v>
       </c>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="C7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="11">
         <v>6</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="I7" t="str">
+      <c r="F7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (6, null, null, 6, null, 1, sysdate(), 'admin');</v>
       </c>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="C8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="11">
         <v>7</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="F8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (7, null, null, 7, null, 1, sysdate(), 'admin');</v>
       </c>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="11">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="C9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="11">
         <v>8</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" t="str">
+      <c r="F9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (8, null, null, 8, null, 1, sysdate(), 'admin');</v>
       </c>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="C10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="11">
         <v>9</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="I10" t="str">
+      <c r="F10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (9, null, null, 9, null, 1, sysdate(), 'admin');</v>
       </c>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>10</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="C11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="11">
         <v>10</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="I11" t="str">
+      <c r="F11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (10, null, null, 10, null, 1, sysdate(), 'admin');</v>
       </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>283</v>
+      <c r="C12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="11">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_turno_revision (id_despacho, id_revisor, id_punto_control, turno_dia, hora_inicio, activo, fecha_registro, usuario_registro) VALUES (11, null, null, 11, null, 1, sysdate(), 'admin');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"INSERT INTO sd_incidencia (nombre, activo, usuario_registro, fecha_registro) VALUES ('"&amp;B2&amp;"', 1, 'admin', sysdate());"</f>
+        <v>INSERT INTO sd_incidencia (nombre, activo, usuario_registro, fecha_registro) VALUES ('Mal estado de la plataforma', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="0">"INSERT INTO sd_incidencia (nombre, activo, usuario_registro, fecha_registro) VALUES ('"&amp;B3&amp;"', 1, 'admin', sysdate());"</f>
+        <v>INSERT INTO sd_incidencia (nombre, activo, usuario_registro, fecha_registro) VALUES ('Llantas en mal estado', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_incidencia (nombre, activo, usuario_registro, fecha_registro) VALUES ('No contar con EPP', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_incidencia (nombre, activo, usuario_registro, fecha_registro) VALUES ('No contar con botiquín', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_incidencia (nombre, activo, usuario_registro, fecha_registro) VALUES ('No contar con extintor', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5190,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5210,10 +5316,10 @@
       <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -5230,11 +5336,11 @@
       <c r="C2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <f>VLOOKUP(B2,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>48641955</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>8421</v>
       </c>
       <c r="F2" t="str">
@@ -5252,11 +5358,11 @@
       <c r="C3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <f>VLOOKUP(B3,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>15879523</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>1269</v>
       </c>
       <c r="F3" t="str">
@@ -5274,11 +5380,11 @@
       <c r="C4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="20" t="str">
+      <c r="D4" s="19" t="str">
         <f>VLOOKUP(B4,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>08512548</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>4589</v>
       </c>
       <c r="F4" t="str">
@@ -5296,11 +5402,11 @@
       <c r="C5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="20" t="str">
+      <c r="D5" s="19" t="str">
         <f>VLOOKUP(B5,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>12012589</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>3586</v>
       </c>
       <c r="F5" t="str">
@@ -5318,11 +5424,11 @@
       <c r="C6" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D6" s="20" t="str">
+      <c r="D6" s="19" t="str">
         <f>VLOOKUP(B6,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>45150148</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>3458</v>
       </c>
       <c r="F6" t="str">
@@ -5340,11 +5446,11 @@
       <c r="C7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="20" t="str">
+      <c r="D7" s="19" t="str">
         <f>VLOOKUP(B7,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>24578521</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>8547</v>
       </c>
       <c r="F7" t="str">
@@ -5353,133 +5459,133 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="21" t="str">
         <f>VLOOKUP(B8,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>54541257</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="21">
         <v>3138</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (11,'2024-11-23','3138',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="22">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="24" t="str">
         <f>VLOOKUP(B9,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>14587625</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="24">
         <v>9521</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (12,'2025-01-14','9521',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>17</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="22" t="str">
+      <c r="D10" s="21" t="str">
         <f>VLOOKUP(B10,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>01248755</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>2415</v>
       </c>
-      <c r="F10" s="15" t="str">
+      <c r="F10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (17,'2025-02-25','2415',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="22">
         <v>18</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="22" t="str">
+      <c r="D11" s="24" t="str">
         <f>VLOOKUP(B11,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>01246589</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="24">
         <v>2205</v>
       </c>
-      <c r="F11" s="15" t="str">
+      <c r="F11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (18,'2025-04-14','2205',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>19</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="21" t="str">
         <f>VLOOKUP(B12,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>12457845</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>6982</v>
       </c>
-      <c r="F12" s="15" t="str">
+      <c r="F12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (19,'2024-10-21','6982',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="22">
         <v>20</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="24" t="str">
         <f>VLOOKUP(B13,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>15655845</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="24">
         <v>2492</v>
       </c>
-      <c r="F13" s="15" t="str">
+      <c r="F13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (20,'2024-07-06','2492',1,sysdate(),'admin');</v>
       </c>
@@ -5491,7 +5597,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -5499,7 +5605,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -5507,188 +5613,239 @@
         <v>199</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>23567845</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D2" t="str">
-        <f>"INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"',1,sysdate(),'admin');"</f>
+      <c r="E2" t="str">
+        <f>"INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;",'"&amp;D2&amp;"',1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (5,'claudio345',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>12547895</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D13" si="0">"INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;",'"&amp;C3&amp;"',1,sysdate(),'admin');"</f>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E13" si="0">"INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES ("&amp;B3&amp;",'"&amp;D3&amp;"',1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (6,'pedro482',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>24516874</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (7,'cesar346',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>30214587</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (8,'victor458',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>13548952</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (13,'carlos165',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>21205548</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (14,'daniel489',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>13464879</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (15,'mario496',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>12465488</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (16,'alejandro114',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="str">
+        <f>VLOOKUP(B10,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>54154548</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (21,'ivan389',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>21489468</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (22,'rodrigo439',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>41258874</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (23,'marco947',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="str">
+        <f>VLOOKUP(B13,sd_usuario!$B$2:$F$25,5,0)</f>
+        <v>12567517</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (24,'julian378',1,sysdate(),'admin');</v>
       </c>
@@ -5703,7 +5860,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5765,7 +5922,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5786,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C2" t="str">
         <f>"INSERT INTO sd_marca("&amp;$B$1&amp;", activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"',1,sysdate(),'admin');"</f>
@@ -5798,7 +5955,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C7" si="0">"INSERT INTO sd_marca("&amp;$B$1&amp;", activo, fecha_registro, usuario_registro) VALUES ('"&amp;B3&amp;"',1,sysdate(),'admin');"</f>
@@ -5810,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -5940,7 +6097,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G7" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5964,7 +6121,7 @@
         <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>75</v>
@@ -6126,7 +6283,7 @@
         <v>Cemento</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J8" t="str">
         <f>VLOOKUP(D2,sd_unidad!$A$2:$B$7,2,0)</f>
@@ -6142,7 +6299,7 @@
         <v>Cemento</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J9" t="str">
         <f>VLOOKUP(D3,sd_unidad!$A$2:$B$7,2,0)</f>
@@ -6158,7 +6315,7 @@
         <v>Ladrillo</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J10" t="str">
         <f>VLOOKUP(D4,sd_unidad!$A$2:$B$7,2,0)</f>
@@ -6272,7 +6429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K2:K21"/>
     </sheetView>
   </sheetViews>

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sd_usuario" sheetId="1" r:id="rId1"/>
@@ -5296,7 +5296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5599,7 +5599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -1289,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1320,15 +1320,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2813,7 +2821,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3137,7 +3145,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -3150,7 +3158,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (4,2,4,2,3,2,1600,1,sysdate(),'admin');</v>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (4,2,4,1,3,2,1600,1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3167,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3180,7 +3188,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (5,5,1,2,5,2,825,1,sysdate(),'admin');</v>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (5,5,1,1,5,2,825,1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3227,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -3240,7 +3248,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (6,1,1,2,3,4,750,1,sysdate(),'admin');</v>
+        <v>INSERT INTO sd_orden_recojo(id_conductor, id_sede_cliente, id_producto_venta, id_estado_orden, id_tracto, id_carreta, cantidad, activo, fecha_registro, usuario_registro) values (6,1,1,1,3,4,750,1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3915,7 +3923,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C2:C12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4074,7 +4082,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K4" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4225,110 +4233,110 @@
         <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 7, 1, now(), 1, sysdate(), 'admin');</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I5" t="s">
-        <v>283</v>
-      </c>
-      <c r="J5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K5" s="14" t="str">
+      <c r="F5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 10, 1, now(), 1, sysdate(), 'admin');</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" t="s">
-        <v>283</v>
-      </c>
-      <c r="I6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K6" s="14" t="str">
+      <c r="F6" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 11, 1, now(), 1, sysdate(), 'admin');</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H7" t="s">
-        <v>283</v>
-      </c>
-      <c r="I7" t="s">
-        <v>283</v>
-      </c>
-      <c r="J7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K7" s="14" t="str">
+      <c r="F7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_despacho (id_planta, id_orden_recojo, id_estado_despacho, hora_inicio_despacho, activo, fecha_registro, usuario_registro) VALUES (1, 13, 1, now(), 1, sysdate(), 'admin');</v>
       </c>
@@ -5297,7 +5305,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5349,249 +5357,250 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="21">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="23">
         <f>VLOOKUP(B3,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>15879523</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="23">
         <v>1269</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (2,'2025-03-06','1269',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="21">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="D4" s="23" t="str">
         <f>VLOOKUP(B4,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>08512548</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="23">
         <v>4589</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (3,'2024-08-14','4589',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="21">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="19" t="str">
+      <c r="D5" s="23" t="str">
         <f>VLOOKUP(B5,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>12012589</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="23">
         <v>3586</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (4,'2024-01-28','3586',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="24">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="26" t="str">
         <f>VLOOKUP(B6,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>45150148</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="26">
         <v>3458</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (9,'2025-01-14','3458',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="21">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="19" t="str">
+      <c r="D7" s="23" t="str">
         <f>VLOOKUP(B7,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>24578521</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="23">
         <v>8547</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (10,'2025-08-14','8547',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="27">
         <v>11</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="29" t="str">
         <f>VLOOKUP(B8,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>54541257</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="29">
         <v>3138</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (11,'2024-11-23','3138',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="24">
         <v>12</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="24" t="str">
+      <c r="D9" s="26" t="str">
         <f>VLOOKUP(B9,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>14587625</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="26">
         <v>9521</v>
       </c>
-      <c r="F9" s="22" t="str">
+      <c r="F9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (12,'2025-01-14','9521',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="27">
         <v>17</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="21" t="str">
+      <c r="D10" s="29" t="str">
         <f>VLOOKUP(B10,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>01248755</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="29">
         <v>2415</v>
       </c>
-      <c r="F10" s="11" t="str">
+      <c r="F10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (17,'2025-02-25','2415',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="24">
         <v>18</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="24" t="str">
+      <c r="D11" s="26" t="str">
         <f>VLOOKUP(B11,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>01246589</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="26">
         <v>2205</v>
       </c>
-      <c r="F11" s="22" t="str">
+      <c r="F11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (18,'2025-04-14','2205',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="27">
         <v>19</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="21" t="str">
+      <c r="D12" s="29" t="str">
         <f>VLOOKUP(B12,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>12457845</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="29">
         <v>6982</v>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (19,'2024-10-21','6982',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="24">
         <v>20</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="26" t="str">
         <f>VLOOKUP(B13,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>15655845</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="26">
         <v>2492</v>
       </c>
-      <c r="F13" s="22" t="str">
+      <c r="F13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (20,'2024-07-06','2492',1,sysdate(),'admin');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5600,7 +5609,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5661,58 +5670,58 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>7</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="4" t="str">
         <f>VLOOKUP(B4,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>24516874</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (7,'cesar346',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <v>8</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="15" t="str">
         <f>VLOOKUP(B5,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>30214587</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (8,'victor458',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <v>13</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="15" t="str">
         <f>VLOOKUP(B6,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>13548952</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (13,'carlos165',1,sysdate(),'admin');</v>
       </c>
@@ -5736,21 +5745,21 @@
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (14,'daniel489',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15">
         <v>15</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="15" t="str">
         <f>VLOOKUP(B8,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>13464879</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (15,'mario496',1,sysdate(),'admin');</v>
       </c>

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sd_usuario" sheetId="1" r:id="rId1"/>
@@ -1289,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1337,6 +1337,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -5304,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5608,8 +5609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5669,21 +5670,21 @@
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (6,'pedro482',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="21">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="21" t="str">
         <f>VLOOKUP(B4,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>24516874</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (7,'cesar346',1,sysdate(),'admin');</v>
       </c>
@@ -5802,21 +5803,21 @@
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (21,'ivan389',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>22</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="4" t="str">
         <f>VLOOKUP(B11,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>21489468</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (22,'rodrigo439',1,sysdate(),'admin');</v>
       </c>
@@ -5861,6 +5862,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -26,6 +26,8 @@
     <sheet name="sd_punto_control" sheetId="17" r:id="rId17"/>
     <sheet name="sd_turno_revision" sheetId="18" r:id="rId18"/>
     <sheet name="sd_incidencia" sheetId="19" r:id="rId19"/>
+    <sheet name="sd_zona_balanza" sheetId="20" r:id="rId20"/>
+    <sheet name="sd_cola_pesaje" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="430">
   <si>
     <t>nombres</t>
   </si>
@@ -1219,13 +1221,121 @@
   </si>
   <si>
     <t>No contar con extintor</t>
+  </si>
+  <si>
+    <t>id_zona_balanza</t>
+  </si>
+  <si>
+    <t>qr_fisico</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>FJSIDLFMSDL</t>
+  </si>
+  <si>
+    <t>FMESIOLFMN</t>
+  </si>
+  <si>
+    <t>DEMAIFLSKNE</t>
+  </si>
+  <si>
+    <t>MFEISKLFESMF</t>
+  </si>
+  <si>
+    <t>FNMISLKFSE</t>
+  </si>
+  <si>
+    <t>MFEISNO</t>
+  </si>
+  <si>
+    <t>MFIESLKFNS</t>
+  </si>
+  <si>
+    <t>JGIKDFMOB</t>
+  </si>
+  <si>
+    <t>KSMLFNSDK</t>
+  </si>
+  <si>
+    <t>MFIOESLNFIS</t>
+  </si>
+  <si>
+    <t>balanza1</t>
+  </si>
+  <si>
+    <t>balanza2</t>
+  </si>
+  <si>
+    <t>balanza3</t>
+  </si>
+  <si>
+    <t>balanza4</t>
+  </si>
+  <si>
+    <t>balanza5</t>
+  </si>
+  <si>
+    <t>balanza6</t>
+  </si>
+  <si>
+    <t>balanza7</t>
+  </si>
+  <si>
+    <t>balanza8</t>
+  </si>
+  <si>
+    <t>balanza9</t>
+  </si>
+  <si>
+    <t>balanza10</t>
+  </si>
+  <si>
+    <t>id_cola_pesaje</t>
+  </si>
+  <si>
+    <t>id_tipo_pesaje</t>
+  </si>
+  <si>
+    <t>posicion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,6 +1355,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1289,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1338,6 +1455,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2757,7 +2875,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2822,7 +2940,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5306,7 +5424,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5605,12 +5723,367 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', 1, 'admin', sysdate());"</f>
+        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B1', 'FJSIDLFMSDL', 'balanza1', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F11" si="0">"INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES ("&amp;B3&amp;",'"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', 1, 'admin', sysdate());"</f>
+        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B2', 'FMESIOLFMN', 'balanza2', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B3', 'DEMAIFLSKNE', 'balanza3', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B4', 'MFEISKLFESMF', 'balanza4', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B5', 'FNMISLKFSE', 'balanza5', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B6', 'MFEISNO', 'balanza6', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B7', 'MFIESLKFNS', 'balanza7', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B8', 'JGIKDFMOB', 'balanza8', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B9', 'KSMLFNSDK', 'balanza9', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B10', 'MFIOESLNFIS', 'balanza10', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6441,7 +6914,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K2:K21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -28,6 +28,7 @@
     <sheet name="sd_incidencia" sheetId="19" r:id="rId19"/>
     <sheet name="sd_zona_balanza" sheetId="20" r:id="rId20"/>
     <sheet name="sd_cola_pesaje" sheetId="21" r:id="rId21"/>
+    <sheet name="sd_tipo_pesaje" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="432">
   <si>
     <t>nombres</t>
   </si>
@@ -1329,6 +1330,12 @@
   </si>
   <si>
     <t>posicion</t>
+  </si>
+  <si>
+    <t>Pesaje vacío</t>
+  </si>
+  <si>
+    <t>Pesaje lleno</t>
   </si>
 </sst>
 </file>
@@ -1434,15 +1441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1456,6 +1456,11 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -5424,7 +5429,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5454,23 +5459,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="32">
         <f>VLOOKUP(B2,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>48641955</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="32">
         <v>8421</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="30" t="str">
         <f t="shared" ref="F2:F13" si="0">"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"','"&amp;E2&amp;"',1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (1,'2024-10-04','8421',1,sysdate(),'admin');</v>
       </c>
@@ -5520,199 +5525,199 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="23" t="str">
+      <c r="D5" s="26" t="str">
         <f>VLOOKUP(B5,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>12012589</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="26">
         <v>3586</v>
       </c>
-      <c r="F5" s="21" t="str">
+      <c r="F5" s="24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (4,'2024-01-28','3586',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>9</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="D6" s="26" t="str">
+      <c r="D6" s="23" t="str">
         <f>VLOOKUP(B6,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>45150148</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <v>3458</v>
       </c>
-      <c r="F6" s="24" t="str">
+      <c r="F6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (9,'2025-01-14','3458',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="24">
         <v>10</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="23" t="str">
+      <c r="D7" s="26" t="str">
         <f>VLOOKUP(B7,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>24578521</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="26">
         <v>8547</v>
       </c>
-      <c r="F7" s="21" t="str">
+      <c r="F7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (10,'2025-08-14','8547',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="24">
         <v>11</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="29" t="str">
+      <c r="D8" s="26" t="str">
         <f>VLOOKUP(B8,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>54541257</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <v>3138</v>
       </c>
-      <c r="F8" s="27" t="str">
+      <c r="F8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (11,'2024-11-23','3138',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>12</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="23" t="str">
         <f>VLOOKUP(B9,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>14587625</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="23">
         <v>9521</v>
       </c>
-      <c r="F9" s="24" t="str">
+      <c r="F9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (12,'2025-01-14','9521',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="24">
         <v>17</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="26" t="str">
         <f>VLOOKUP(B10,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>01248755</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>2415</v>
       </c>
-      <c r="F10" s="27" t="str">
+      <c r="F10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (17,'2025-02-25','2415',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>18</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="D11" s="23" t="str">
         <f>VLOOKUP(B11,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>01246589</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="23">
         <v>2205</v>
       </c>
-      <c r="F11" s="24" t="str">
+      <c r="F11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (18,'2025-04-14','2205',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="24">
         <v>19</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="29" t="str">
+      <c r="D12" s="26" t="str">
         <f>VLOOKUP(B12,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>12457845</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <v>6982</v>
       </c>
-      <c r="F12" s="27" t="str">
+      <c r="F12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (19,'2024-10-21','6982',1,sysdate(),'admin');</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>20</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="26" t="str">
+      <c r="D13" s="23" t="str">
         <f>VLOOKUP(B13,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>15655845</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
         <v>2492</v>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (20,'2024-07-06','2492',1,sysdate(),'admin');</v>
       </c>
@@ -5746,7 +5751,7 @@
       <c r="C1" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>395</v>
       </c>
       <c r="E1" t="s">
@@ -6078,12 +6083,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"');"</f>
+        <v>INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES (1, 'Pesaje vacío');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"');"</f>
+        <v>INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES (2, 'Pesaje lleno');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6143,21 +6201,21 @@
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (6,'pedro482',1,sysdate(),'admin');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+    <row r="4" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="str">
+      <c r="C4" s="20" t="str">
         <f>VLOOKUP(B4,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>24516874</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E4" s="21" t="str">
+      <c r="E4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO sd_revisor(id_usuario, contrasena, activo, fecha_registro, usuario_registro) VALUES (7,'cesar346',1,sysdate(),'admin');</v>
       </c>
@@ -6173,7 +6231,7 @@
         <f>VLOOKUP(B5,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>30214587</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>313</v>
       </c>
       <c r="E5" s="15" t="str">
@@ -6192,7 +6250,7 @@
         <f>VLOOKUP(B6,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>13548952</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>314</v>
       </c>
       <c r="E6" s="15" t="str">
@@ -6230,7 +6288,7 @@
         <f>VLOOKUP(B8,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>13464879</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>316</v>
       </c>
       <c r="E8" s="15" t="str">
@@ -6287,7 +6345,7 @@
         <f>VLOOKUP(B11,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>21489468</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>319</v>
       </c>
       <c r="E11" s="4" t="str">

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -5429,7 +5429,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6141,7 +6141,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="15" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="sd_usuario" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="sd_punto_control" sheetId="17" r:id="rId17"/>
     <sheet name="sd_turno_revision" sheetId="18" r:id="rId18"/>
     <sheet name="sd_incidencia" sheetId="19" r:id="rId19"/>
-    <sheet name="sd_zona_balanza" sheetId="20" r:id="rId20"/>
-    <sheet name="sd_cola_pesaje" sheetId="21" r:id="rId21"/>
-    <sheet name="sd_tipo_pesaje" sheetId="22" r:id="rId22"/>
+    <sheet name="sd_tipo_pesaje" sheetId="22" r:id="rId20"/>
+    <sheet name="sd_zona_balanza" sheetId="20" r:id="rId21"/>
+    <sheet name="sd_cola_pesaje" sheetId="21" r:id="rId22"/>
+    <sheet name="sd_canal_carga" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="431">
   <si>
     <t>nombres</t>
   </si>
@@ -1251,48 +1252,6 @@
     <t>B6</t>
   </si>
   <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>FJSIDLFMSDL</t>
-  </si>
-  <si>
-    <t>FMESIOLFMN</t>
-  </si>
-  <si>
-    <t>DEMAIFLSKNE</t>
-  </si>
-  <si>
-    <t>MFEISKLFESMF</t>
-  </si>
-  <si>
-    <t>FNMISLKFSE</t>
-  </si>
-  <si>
-    <t>MFEISNO</t>
-  </si>
-  <si>
-    <t>MFIESLKFNS</t>
-  </si>
-  <si>
-    <t>JGIKDFMOB</t>
-  </si>
-  <si>
-    <t>KSMLFNSDK</t>
-  </si>
-  <si>
-    <t>MFIOESLNFIS</t>
-  </si>
-  <si>
     <t>balanza1</t>
   </si>
   <si>
@@ -1311,18 +1270,6 @@
     <t>balanza6</t>
   </si>
   <si>
-    <t>balanza7</t>
-  </si>
-  <si>
-    <t>balanza8</t>
-  </si>
-  <si>
-    <t>balanza9</t>
-  </si>
-  <si>
-    <t>balanza10</t>
-  </si>
-  <si>
     <t>id_cola_pesaje</t>
   </si>
   <si>
@@ -1336,6 +1283,57 @@
   </si>
   <si>
     <t>Pesaje lleno</t>
+  </si>
+  <si>
+    <t>16300</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Despacho</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>15500</t>
+  </si>
+  <si>
+    <t>12700</t>
+  </si>
+  <si>
+    <t>id_canal_carga</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>FSJIUSKNVS</t>
+  </si>
+  <si>
+    <t>ENSJFIENSF</t>
+  </si>
+  <si>
+    <t>FNESFISKMV</t>
+  </si>
+  <si>
+    <t>NFESIFNML</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1366,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1455,12 +1452,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2606,7 +2603,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D2:D5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2945,7 +2942,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3829,7 +3826,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4047,7 +4044,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4206,7 +4203,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K2:K4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5428,8 +5425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5459,23 +5456,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30">
-        <v>1</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <f>VLOOKUP(B2,sd_usuario!$B$2:$F$25,5,0)</f>
         <v>48641955</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="31">
         <v>8421</v>
       </c>
-      <c r="F2" s="30" t="str">
+      <c r="F2" s="29" t="str">
         <f t="shared" ref="F2:F13" si="0">"INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"','"&amp;E2&amp;"',1,sysdate(),'admin');"</f>
         <v>INSERT INTO sd_conductor(id_usuario, fecha_venc_licencia, clave_digital, activo, fecha_registro, usuario_registro) VALUES (1,'2024-10-04','8421',1,sysdate(),'admin');</v>
       </c>
@@ -5730,29 +5727,82 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"');"</f>
+        <v>INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES (1, 'Pesaje vacío');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"');"</f>
+        <v>INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES (2, 'Pesaje lleno');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>394</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" t="s">
         <v>160</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>395</v>
       </c>
       <c r="E1" t="s">
         <v>396</v>
@@ -5768,18 +5818,18 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>397</v>
       </c>
-      <c r="D2" t="s">
-        <v>407</v>
-      </c>
       <c r="E2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="F2" t="str">
-        <f>"INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES ("&amp;B2&amp;",'"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', 1, 'admin', sysdate());"</f>
-        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B1', 'FJSIDLFMSDL', 'balanza1', 1, 'admin', sysdate());</v>
+        <f>"INSERT INTO sd_zona_balanza (id_tipo_pesaje, id_planta, codigo, contrasena, activo, usuario_registro, fecha_registro) VALUES ("&amp;B2&amp;", "&amp;C2&amp;",'"&amp;D2&amp;"', '"&amp;E2&amp;"', 1, 'admin', sysdate());"</f>
+        <v>INSERT INTO sd_zona_balanza (id_tipo_pesaje, id_planta, codigo, contrasena, activo, usuario_registro, fecha_registro) VALUES (1, 1,'B1', 'balanza1', 1, 'admin', sysdate());</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5789,18 +5839,18 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>398</v>
       </c>
-      <c r="D3" t="s">
-        <v>408</v>
-      </c>
       <c r="E3" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F11" si="0">"INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES ("&amp;B3&amp;",'"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', 1, 'admin', sysdate());"</f>
-        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B2', 'FMESIOLFMN', 'balanza2', 1, 'admin', sysdate());</v>
+        <f t="shared" ref="F3:F7" si="0">"INSERT INTO sd_zona_balanza (id_tipo_pesaje, id_planta, codigo, contrasena, activo, usuario_registro, fecha_registro) VALUES ("&amp;B3&amp;", "&amp;C3&amp;",'"&amp;D3&amp;"', '"&amp;E3&amp;"', 1, 'admin', sysdate());"</f>
+        <v>INSERT INTO sd_zona_balanza (id_tipo_pesaje, id_planta, codigo, contrasena, activo, usuario_registro, fecha_registro) VALUES (1, 1,'B2', 'balanza2', 1, 'admin', sysdate());</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5810,18 +5860,18 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>399</v>
       </c>
-      <c r="D4" t="s">
-        <v>409</v>
-      </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B3', 'DEMAIFLSKNE', 'balanza3', 1, 'admin', sysdate());</v>
+        <v>INSERT INTO sd_zona_balanza (id_tipo_pesaje, id_planta, codigo, contrasena, activo, usuario_registro, fecha_registro) VALUES (1, 1,'B3', 'balanza3', 1, 'admin', sysdate());</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5829,20 +5879,20 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>400</v>
       </c>
-      <c r="D5" t="s">
-        <v>410</v>
-      </c>
       <c r="E5" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B4', 'MFEISKLFESMF', 'balanza4', 1, 'admin', sysdate());</v>
+        <v>INSERT INTO sd_zona_balanza (id_tipo_pesaje, id_planta, codigo, contrasena, activo, usuario_registro, fecha_registro) VALUES (2, 1,'B4', 'balanza4', 1, 'admin', sysdate());</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5850,20 +5900,20 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>401</v>
       </c>
-      <c r="D6" t="s">
-        <v>411</v>
-      </c>
       <c r="E6" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B5', 'FNMISLKFSE', 'balanza5', 1, 'admin', sysdate());</v>
+        <v>INSERT INTO sd_zona_balanza (id_tipo_pesaje, id_planta, codigo, contrasena, activo, usuario_registro, fecha_registro) VALUES (2, 1,'B5', 'balanza5', 1, 'admin', sysdate());</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5871,104 +5921,20 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>402</v>
       </c>
-      <c r="D7" t="s">
-        <v>412</v>
-      </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B6', 'MFEISNO', 'balanza6', 1, 'admin', sysdate());</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E8" t="s">
-        <v>423</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B7', 'MFIESLKFNS', 'balanza7', 1, 'admin', sysdate());</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D9" t="s">
-        <v>414</v>
-      </c>
-      <c r="E9" t="s">
-        <v>424</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B8', 'JGIKDFMOB', 'balanza8', 1, 'admin', sysdate());</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>405</v>
-      </c>
-      <c r="D10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E10" t="s">
-        <v>425</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B9', 'KSMLFNSDK', 'balanza9', 1, 'admin', sysdate());</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" t="s">
-        <v>416</v>
-      </c>
-      <c r="E11" t="s">
-        <v>426</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_zona_balanza (id_planta, codigo, qr_fisico, contrasena, activo, usuario_registro, fecha_registro) VALUES (1,'B10', 'MFIOESLNFIS', 'balanza10', 1, 'admin', sysdate());</v>
+        <v>INSERT INTO sd_zona_balanza (id_tipo_pesaje, id_planta, codigo, contrasena, activo, usuario_registro, fecha_registro) VALUES (2, 1,'B6', 'balanza6', 1, 'admin', sysdate());</v>
       </c>
     </row>
   </sheetData>
@@ -5977,7 +5943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -5995,7 +5961,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s">
         <v>185</v>
@@ -6004,10 +5970,10 @@
         <v>394</v>
       </c>
       <c r="D1" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="E1" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -6083,52 +6049,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"');"</f>
-        <v>INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES (1, 'Pesaje vacío');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"INSERT INTO sd_canal_carga (id_planta, codigo, qr_fisico, activo, usuario_registro, fecha_registro ) VALUES ("&amp;B2&amp;", '"&amp;C2&amp;"', '"&amp;D2&amp;"', 1, 'admin', sysdate());"</f>
+        <v>INSERT INTO sd_canal_carga (id_planta, codigo, qr_fisico, activo, usuario_registro, fecha_registro ) VALUES (1, 'A1', 'FSJIUSKNVS', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C3" t="str">
-        <f>"INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"');"</f>
-        <v>INSERT INTO sd_tipo_pesaje (id_tipo_pesaje, nombre) VALUES (2, 'Pesaje lleno');</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E5" si="0">"INSERT INTO sd_canal_carga (id_planta, codigo, qr_fisico, activo, usuario_registro, fecha_registro ) VALUES ("&amp;B3&amp;", '"&amp;C3&amp;"', '"&amp;D3&amp;"', 1, 'admin', sysdate());"</f>
+        <v>INSERT INTO sd_canal_carga (id_planta, codigo, qr_fisico, activo, usuario_registro, fecha_registro ) VALUES (1, 'A2', 'ENSJFIENSF', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_canal_carga (id_planta, codigo, qr_fisico, activo, usuario_registro, fecha_registro ) VALUES (1, 'A3', 'FNESFISKMV', 1, 'admin', sysdate());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_canal_carga (id_planta, codigo, qr_fisico, activo, usuario_registro, fecha_registro ) VALUES (1, 'A4', 'NFESIFNML', 1, 'admin', sysdate());</v>
       </c>
     </row>
   </sheetData>
@@ -6141,7 +6158,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6969,10 +6986,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7739,6 +7756,50 @@
         <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-647',48,2.4,2,5500,'2025-08-17',1,'2025-03-09',1,sysdate(),'admin');</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E25" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E28" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="15" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="sd_usuario" sheetId="1" r:id="rId1"/>
@@ -4043,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5730,7 +5730,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6053,8 +6053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6150,6 +6150,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Inserts.xlsx
+++ b/Inserts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="745" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="sd_usuario" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="443">
   <si>
     <t>nombres</t>
   </si>
@@ -1300,9 +1300,6 @@
     <t>Despacho</t>
   </si>
   <si>
-    <t>Peso</t>
-  </si>
-  <si>
     <t>15500</t>
   </si>
   <si>
@@ -1334,13 +1331,56 @@
   </si>
   <si>
     <t>NFESIFNML</t>
+  </si>
+  <si>
+    <t>valor_pesaje_vacio</t>
+  </si>
+  <si>
+    <t>valor_pesaje_lleno</t>
+  </si>
+  <si>
+    <t>Peso vehiculo</t>
+  </si>
+  <si>
+    <t>Peso carga</t>
+  </si>
+  <si>
+    <t>desfase</t>
+  </si>
+  <si>
+    <t>qr_entrada</t>
+  </si>
+  <si>
+    <t>qr_salida</t>
+  </si>
+  <si>
+    <t>JKSAFNAJFK</t>
+  </si>
+  <si>
+    <t>FIOESNFKL</t>
+  </si>
+  <si>
+    <t>MIFOEMFS</t>
+  </si>
+  <si>
+    <t>IMDOSMVSD</t>
+  </si>
+  <si>
+    <t>MFIFODSMV</t>
+  </si>
+  <si>
+    <t>FSMVIODSVQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,8 +1410,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1396,6 +1443,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1406,11 +1459,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1458,9 +1512,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2941,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3747,6 +3808,12 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>1350</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
       <c r="G29">
         <v>2</v>
       </c>
@@ -3823,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3837,7 +3904,7 @@
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>160</v>
       </c>
@@ -3878,10 +3945,16 @@
         <v>169</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3918,15 +3991,21 @@
       <c r="L2" s="8">
         <v>0</v>
       </c>
-      <c r="M2" s="8">
-        <v>20</v>
-      </c>
-      <c r="N2" t="str">
-        <f>"INSERT INTO sd_planta ("&amp;$B$1&amp;", "&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;", "&amp;$F$1&amp;","&amp;$G$1&amp;", "&amp;$H$1&amp;","&amp;$I$1&amp;", "&amp;$J$1&amp;","&amp;$K$1&amp;", "&amp;$L$1&amp;", "&amp;$M$1&amp;",activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;I2&amp;", "&amp;J2&amp;", "&amp;K2&amp;", "&amp;L2&amp;", "&amp;M2&amp;", 1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues,activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Sur','Av. Las Malvinas 4589','San Juan de Miraflores',60, 10.1, 11.1, 24.5, 26.5, 300, 300, 0, 20, 1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M2" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="P2" t="str">
+        <f>"INSERT INTO sd_planta ("&amp;$B$1&amp;", "&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;", "&amp;$F$1&amp;","&amp;$G$1&amp;", "&amp;$H$1&amp;","&amp;$I$1&amp;", "&amp;$J$1&amp;","&amp;$K$1&amp;", "&amp;$L$1&amp;", "&amp;$M$1&amp;", "&amp;N1&amp;", "&amp;O1&amp;", activo, fecha_registro, usuario_registro) VALUES ('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;I2&amp;", "&amp;J2&amp;", "&amp;K2&amp;", "&amp;L2&amp;", "&amp;M2&amp;", '"&amp;N2&amp;"', '"&amp;O2&amp;"', 1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues, qr_entrada, qr_salida, activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Sur','Av. Las Malvinas 4589','San Juan de Miraflores',60, 10.1, 11.1, 24.5, 26.5, 300, 300, 0, 0.5, 'JKSAFNAJFK', 'IMDOSMVSD', 1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3965,15 +4044,21 @@
       <c r="L3" s="8">
         <v>0</v>
       </c>
-      <c r="M3" s="8">
-        <v>20</v>
-      </c>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N4" si="0">"INSERT INTO sd_planta ("&amp;$B$1&amp;", "&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;", "&amp;$F$1&amp;","&amp;$G$1&amp;", "&amp;$H$1&amp;","&amp;$I$1&amp;", "&amp;$J$1&amp;","&amp;$K$1&amp;", "&amp;$L$1&amp;", "&amp;$M$1&amp;",activo, fecha_registro, usuario_registro) VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;", "&amp;K3&amp;", "&amp;L3&amp;", "&amp;M3&amp;", 1,sysdate(),'admin');"</f>
-        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues,activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Norte','Av. Tulipanes 1248','Ancón',50, 12.5, 13.5, 27.5, 29.5, 320, 300, 0, 20, 1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M3" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P4" si="0">"INSERT INTO sd_planta ("&amp;$B$1&amp;", "&amp;$C$1&amp;","&amp;$D$1&amp;","&amp;$E$1&amp;", "&amp;$F$1&amp;","&amp;$G$1&amp;", "&amp;$H$1&amp;","&amp;$I$1&amp;", "&amp;$J$1&amp;","&amp;$K$1&amp;", "&amp;$L$1&amp;", "&amp;$M$1&amp;", "&amp;N2&amp;", "&amp;O2&amp;", activo, fecha_registro, usuario_registro) VALUES ('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;", "&amp;K3&amp;", "&amp;L3&amp;", "&amp;M3&amp;", '"&amp;N3&amp;"', '"&amp;O3&amp;"', 1,sysdate(),'admin');"</f>
+        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues, JKSAFNAJFK, IMDOSMVSD, activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Norte','Av. Tulipanes 1248','Ancón',50, 12.5, 13.5, 27.5, 29.5, 320, 300, 0, 0.4, 'FIOESNFKL', 'MFIFODSMV', 1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4011,15 +4096,21 @@
       <c r="L4" s="8">
         <v>0</v>
       </c>
-      <c r="M4" s="8">
-        <v>18</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues,activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Este','Av. Juliaca 3458','Ate',40, 7, 8, 22.5, 24, 300, 300, 0, 18, 1,sysdate(),'admin');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M4" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO sd_planta (nombre, direccion,distrito,capacidad_maxima, ubicacion_x1,ubicacion_x2, ubicacion_y1,ubicacion_y2, limite_inf_pesaje_antes,limite_sup_pesaje_antes, limite_inf_pesaje_despues, limite_sup_pesaje_despues, FIOESNFKL, MFIFODSMV, activo, fecha_registro, usuario_registro) VALUES ('Planta Lima Este','Av. Juliaca 3458','Ate',40, 7, 8, 22.5, 24, 300, 300, 0, 0.3, 'MIFOEMFS', 'FSMVIODSVQ', 1,sysdate(),'admin');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4032,6 +4123,8 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4044,7 +4137,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4185,7 +4278,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="36" t="s">
         <v>181</v>
       </c>
       <c r="C12" t="str">
@@ -5780,10 +5873,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="B5" sqref="B5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5937,6 +6030,7 @@
         <v>INSERT INTO sd_zona_balanza (id_tipo_pesaje, id_planta, codigo, contrasena, activo, usuario_registro, fecha_registro) VALUES (2, 1,'B6', 'balanza6', 1, 'admin', sysdate());</v>
       </c>
     </row>
+    <row r="29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5948,7 +6042,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6054,14 +6148,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B1" t="s">
         <v>160</v>
@@ -6084,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E2" t="str">
         <f>"INSERT INTO sd_canal_carga (id_planta, codigo, qr_fisico, activo, usuario_registro, fecha_registro ) VALUES ("&amp;B2&amp;", '"&amp;C2&amp;"', '"&amp;D2&amp;"', 1, 'admin', sysdate());"</f>
@@ -6102,10 +6196,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E5" si="0">"INSERT INTO sd_canal_carga (id_planta, codigo, qr_fisico, activo, usuario_registro, fecha_registro ) VALUES ("&amp;B3&amp;", '"&amp;C3&amp;"', '"&amp;D3&amp;"', 1, 'admin', sysdate());"</f>
@@ -6120,10 +6214,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -6138,10 +6232,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -6657,7 +6751,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G2:G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6989,7 +7083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -6999,7 +7093,9 @@
     <col min="2" max="2" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="14.77734375" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -7757,51 +7853,128 @@
         <v>INSERT INTO sd_vehiculo(id_tipo_vehiculo, placa, largo, ancho, altura, peso, fecha_venc_circulacion, tiene_tarjeta_propiedad, fecha_venc_soat, activo, fecha_registro, usuario_registro) values (2,'O3B-647',48,2.4,2,5500,'2025-08-17',1,'2025-03-09',1,sysdate(),'admin');</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E25" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="B25" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="33" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>414</v>
+      <c r="G26" s="34">
+        <f>1350*9</f>
+        <v>12150</v>
+      </c>
+      <c r="H26" s="33">
+        <v>15480.45</v>
+      </c>
+      <c r="I26" s="13">
+        <f>H26+G26+10</f>
+        <v>27640.45</v>
+      </c>
+      <c r="J26" s="13">
+        <f>I26-H26-G26</f>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>421</v>
-      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E28" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>420</v>
-      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13">
+        <f>(I26-H26)/1350</f>
+        <v>9.007407407407408</v>
+      </c>
+      <c r="J28" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>